--- a/tables/crosstab/crosstab_app_time/interested VS visited.xlsx
+++ b/tables/crosstab/crosstab_app_time/interested VS visited.xlsx
@@ -468,40 +468,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H2">
-        <v>4.89</v>
+        <v>4.75</v>
       </c>
       <c r="I2">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="J2">
-        <v>12.47</v>
+        <v>12.5</v>
       </c>
       <c r="K2">
-        <v>5.38</v>
+        <v>5.25</v>
       </c>
       <c r="L2">
-        <v>11.98</v>
+        <v>11.75</v>
       </c>
       <c r="M2">
-        <v>36.19</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -509,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -518,31 +518,31 @@
         <v>60</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>102</v>
       </c>
       <c r="G3">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H3">
-        <v>17.36</v>
+        <v>17.25</v>
       </c>
       <c r="I3">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="J3">
-        <v>14.67</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>6.11</v>
+        <v>5.75</v>
       </c>
       <c r="L3">
-        <v>24.94</v>
+        <v>25.5</v>
       </c>
       <c r="M3">
-        <v>63.81</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -550,37 +550,37 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G4">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H4">
-        <v>22.25</v>
+        <v>22</v>
       </c>
       <c r="I4">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J4">
-        <v>27.14</v>
+        <v>27.5</v>
       </c>
       <c r="K4">
-        <v>11.49</v>
+        <v>11</v>
       </c>
       <c r="L4">
-        <v>36.92</v>
+        <v>37.25</v>
       </c>
       <c r="M4">
         <v>100</v>
